--- a/doc/logs/Tobias.xlsx
+++ b/doc/logs/Tobias.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>• följa RUP och tillämpa grundläggande modelleringsteknikerna.</t>
+  </si>
+  <si>
+    <t>• tillämpa och implementera ett designmönster i ett objektorienterat programspråk.</t>
   </si>
   <si>
     <t>• använda ett CASE-verktyg</t>
@@ -308,7 +311,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -377,9 +380,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1560,10 +1560,10 @@
     <row r="12">
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1742,18 +1742,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
+    <row r="5" ht="32.35" customHeight="1">
       <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" t="s" s="25">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" s="24">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="25">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1781,63 +1783,63 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.11719" style="27" customWidth="1"/>
-    <col min="2" max="2" width="22.5391" style="27" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.11719" style="26" customWidth="1"/>
+    <col min="2" max="2" width="22.5391" style="26" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
       <c r="A1" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
       <c r="A2" t="s" s="21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="21">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="20.55" customHeight="1">
       <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="28">
-        <v>27</v>
+      <c r="B3" t="s" s="27">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="29">
-        <v>28</v>
+      <c r="B4" t="s" s="28">
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="29">
-        <v>29</v>
+      <c r="B5" t="s" s="28">
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="29">
-        <v>30</v>
+      <c r="B6" t="s" s="28">
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" s="24">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="29">
-        <v>31</v>
+      <c r="B7" t="s" s="28">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
